--- a/src/main/java/stas/documents/result.xlsx
+++ b/src/main/java/stas/documents/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\Randomizer\src\main\java\stas\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stasf\IdeaProjects\Randomizer\src\main\java\stas\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E639EB-091E-4F8C-8709-8A8726FBA662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E96FBB-7FCE-4B5A-AD2B-A452EFD80213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -94,18 +94,6 @@
   </si>
   <si>
     <t>Сергей</t>
-  </si>
-  <si>
-    <t>Татина</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Приора</t>
-  </si>
-  <si>
-    <t>Глеб</t>
   </si>
   <si>
     <t>Гурко</t>
@@ -442,7 +430,7 @@
       <selection activeCell="L21" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -656,10 +644,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>4.0</v>
@@ -679,10 +667,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>4.0</v>
@@ -697,7 +685,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/stas/documents/result.xlsx
+++ b/src/main/java/stas/documents/result.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -627,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -650,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
